--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ll/1015/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78659889-B19D-194E-9A44-C6D96C4513EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90A1FA9-28AB-9748-B192-0F584FEFCE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1480" windowWidth="21360" windowHeight="17440" xr2:uid="{CEF91AFD-9801-2147-BFBB-CB15C3B3F2C1}"/>
+    <workbookView xWindow="4440" yWindow="1480" windowWidth="21360" windowHeight="17440" activeTab="1" xr2:uid="{CEF91AFD-9801-2147-BFBB-CB15C3B3F2C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE413669-DAC0-0742-A984-DEE72DC9689C}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -674,4 +675,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECC98DA-FA71-7B4C-A98B-50056F53778E}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>